--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>001790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰智能汽车股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>81.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006977</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银汇理海棠三年定期开放混合</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001314</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达新益灵活配置混合I</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.75</t>
+          <t>20.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001315</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达新益灵活配置混合E</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.75</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001443</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞选灵活配置混合I</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>37.24</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001444</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达瑞选灵活配置混合E</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37.24</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001716</t>
+          <t>001443</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合A</t>
+          <t>易方达瑞选灵活配置混合I</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>17.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>37.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>001444</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>易方达瑞选灵活配置混合E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>17.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>37.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001747</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达瑞祺灵活配置混合I</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001748</t>
+          <t>008313</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达瑞祺灵活配置混合E</t>
+          <t>光大保德信研究精选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001997</t>
+          <t>001314</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合C</t>
+          <t>易方达新益灵活配置混合I</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>001315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>易方达新益灵活配置混合E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>001747</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票A</t>
+          <t>易方达瑞祺灵活配置混合I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003458</t>
+          <t>001748</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>嘉实稳宏债券A</t>
+          <t>易方达瑞祺灵活配置混合E</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003459</t>
+          <t>009215</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实稳宏债券C</t>
+          <t>易方达瑞川灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>007893</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>平安估值精选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011323</t>
+          <t>001716</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票C</t>
+          <t>工银新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>001997</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>工银新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009215</t>
+          <t>003458</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达瑞川灵活配置混合A</t>
+          <t>嘉实稳宏债券A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009216</t>
+          <t>007894</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达瑞川灵活配置混合C</t>
+          <t>平安估值精选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>37.20</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>011323</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰智能汽车股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007893</t>
+          <t>009216</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平安估值精选混合A</t>
+          <t>易方达瑞川灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1452,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007894</t>
+          <t>003459</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平安估值精选混合C</t>
+          <t>嘉实稳宏债券C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008313</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大保德信研究精选混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009691</t>
+          <t>001790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
+          <t>国泰智能汽车股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>71.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009692</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005970</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰消费优选股票</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>005970</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰消费优选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>009691</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>国泰浩益18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>011323</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票A</t>
+          <t>国泰智能汽车股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>6.08</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011323</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>009692</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰浩益18个月封闭运作混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5519</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,4 +3007,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0134</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4013,4 +4014,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4022,7 +4023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4033,17 +4034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4053,14 +4074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.04</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4069,14 +4112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.66</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4085,14 +4150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.99</v>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4101,13 +4188,1785 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7788</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7568</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5865,7 +5866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5876,17 +5877,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5896,14 +5917,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.81</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5912,14 +5955,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.04</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5928,14 +5993,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.66</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5944,14 +6031,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.99</v>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5960,13 +6069,1497 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7442,7 +7443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7453,17 +7454,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7473,14 +7494,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.36</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7489,14 +7532,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.81</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7505,14 +7570,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.04</v>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0184</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7521,14 +7608,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.66</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7537,14 +7646,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.99</v>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -7553,13 +7684,1663 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6235</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4858</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>15.62</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>15.36</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>19.81</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>12.04</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>9.66</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>10.99</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.95</v>
       </c>
     </row>
@@ -600,6 +617,2302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8267</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3939,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5781,7 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6787,7 +9100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7679,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8267,7 +10580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603179-新泉股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>24.19</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>15.62</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>15.36</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>19.81</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>12.04</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>9.66</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>10.99</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.95</v>
       </c>
     </row>
@@ -616,7 +633,3651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003458</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003459</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实稳宏债券C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏复兴混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015073</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏复兴混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2912,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4676,7 +8337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6252,7 +9913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8094,7 +11755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9100,7 +12761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9992,7 +13653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10578,1086 +14239,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001790</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1687</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1279</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9537</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8438</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8145</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7302</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6003</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5547</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001443</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达瑞选灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3270</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001444</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达瑞选灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3270</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2583</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2037</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001314</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达新益灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.75</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1765</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001315</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达新益灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>36.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1765</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001747</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达瑞祺灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>37.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1578</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001748</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达瑞祺灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>37.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1578</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009215</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>易方达瑞川灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1470</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001716</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001997</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003458</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011323</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国泰智能汽车股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009216</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达瑞川灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003459</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实稳宏债券C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>